--- a/biology/Zoologie/Echimys_saturnus/Echimys_saturnus.xlsx
+++ b/biology/Zoologie/Echimys_saturnus/Echimys_saturnus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echimys saturnus est une espèce de rongeurs de la famille des Echimyidae. Ce rat épineux que l'on n'a rencontré que rarement, dans quelques localités d'Amérique du Sud, en Équateur et au Pérou, est encore mal connu[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echimys saturnus est une espèce de rongeurs de la famille des Echimyidae. Ce rat épineux que l'on n'a rencontré que rarement, dans quelques localités d'Amérique du Sud, en Équateur et au Pérou, est encore mal connu.
 Cette espèce a été décrite pour la première fois en 1926 par le zoologiste britannique Michael Rogers Oldfield Thomas (1858-1929).
 </t>
         </is>
